--- a/docs/source/recursos/conservacion/tabla_def_con_08mzo21.xlsx
+++ b/docs/source/recursos/conservacion/tabla_def_con_08mzo21.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\turismo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\conservacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB21646-9483-43DB-AE34-967D04F38B79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF72A6DA-F24A-438C-ABB9-6C3AE74A0400}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="285" windowWidth="20340" windowHeight="10185" xr2:uid="{F29FCC71-4D68-4D0A-A197-72AF44C9C956}"/>
+    <workbookView xWindow="23220" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{F29FCC71-4D68-4D0A-A197-72AF44C9C956}"/>
   </bookViews>
   <sheets>
     <sheet name="definiciones" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>Sector</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Procesos ecológicos necesarios para los otros tres tipos de servicios ambientales. Su impacto sobre el ser humano es indirecto (o directo a muy largo plazo). Comprenden: formación de suelo, fotosíntesis, producción primaria, ciclo de nutrientes y ciclo del agua.</t>
+  </si>
+  <si>
+    <t>Criterios</t>
   </si>
 </sst>
 </file>
@@ -178,7 +181,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -265,10 +268,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6B64EF-2A17-4A78-9CAF-F88BE012DEF9}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
@@ -630,7 +633,9 @@
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C7" s="10"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -648,7 +653,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -661,7 +666,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -873,7 +878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>25</v>
       </c>
@@ -889,7 +894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>26</v>
       </c>
@@ -897,7 +902,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>27</v>
       </c>
